--- a/INTLINE/data/134/DEUSTATIS/Producer price index for industrial products - GP2 codes.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Producer price index for industrial products - GP2 codes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7148" uniqueCount="126">
   <si>
     <t>Producer price index for industrial products: Germany,
 months, product classification (GP2009 2-/3-/4-/5-/6-/
@@ -391,7 +391,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:55:11</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:34:06</t>
   </si>
 </sst>
 </file>
@@ -14149,11 +14149,11 @@
       <c r="UJ7" t="n" s="10">
         <v>115.5</v>
       </c>
-      <c r="UK7" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="UL7" t="s" s="10">
-        <v>67</v>
+      <c r="UK7" t="n" s="10">
+        <v>118.9</v>
+      </c>
+      <c r="UL7" t="n" s="10">
+        <v>109.2</v>
       </c>
       <c r="UM7" t="s" s="10">
         <v>67</v>
@@ -15849,11 +15849,11 @@
       <c r="UJ8" t="n" s="10">
         <v>262.1</v>
       </c>
-      <c r="UK8" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="UL8" t="s" s="10">
-        <v>67</v>
+      <c r="UK8" t="n" s="10">
+        <v>278.2</v>
+      </c>
+      <c r="UL8" t="n" s="10">
+        <v>311.0</v>
       </c>
       <c r="UM8" t="s" s="10">
         <v>67</v>
@@ -17549,11 +17549,11 @@
       <c r="UJ9" t="n" s="10">
         <v>124.1</v>
       </c>
-      <c r="UK9" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="UL9" t="s" s="10">
-        <v>67</v>
+      <c r="UK9" t="n" s="10">
+        <v>125.0</v>
+      </c>
+      <c r="UL9" t="n" s="10">
+        <v>126.5</v>
       </c>
       <c r="UM9" t="s" s="10">
         <v>67</v>
@@ -19249,11 +19249,11 @@
       <c r="UJ10" t="n" s="10">
         <v>118.4</v>
       </c>
-      <c r="UK10" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="UL10" t="s" s="10">
-        <v>67</v>
+      <c r="UK10" t="n" s="10">
+        <v>124.6</v>
+      </c>
+      <c r="UL10" t="n" s="10">
+        <v>131.3</v>
       </c>
       <c r="UM10" t="s" s="10">
         <v>67</v>
@@ -20949,11 +20949,11 @@
       <c r="UJ11" t="n" s="10">
         <v>112.0</v>
       </c>
-      <c r="UK11" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="UL11" t="s" s="10">
-        <v>67</v>
+      <c r="UK11" t="n" s="10">
+        <v>113.0</v>
+      </c>
+      <c r="UL11" t="n" s="10">
+        <v>114.2</v>
       </c>
       <c r="UM11" t="s" s="10">
         <v>67</v>
@@ -22649,11 +22649,11 @@
       <c r="UJ12" t="n" s="10">
         <v>119.5</v>
       </c>
-      <c r="UK12" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="UL12" t="s" s="10">
-        <v>67</v>
+      <c r="UK12" t="n" s="10">
+        <v>119.5</v>
+      </c>
+      <c r="UL12" t="n" s="10">
+        <v>119.6</v>
       </c>
       <c r="UM12" t="s" s="10">
         <v>67</v>
@@ -24349,11 +24349,11 @@
       <c r="UJ13" t="n" s="10">
         <v>112.1</v>
       </c>
-      <c r="UK13" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="UL13" t="s" s="10">
-        <v>67</v>
+      <c r="UK13" t="n" s="10">
+        <v>113.3</v>
+      </c>
+      <c r="UL13" t="n" s="10">
+        <v>114.8</v>
       </c>
       <c r="UM13" t="s" s="10">
         <v>67</v>
@@ -26049,11 +26049,11 @@
       <c r="UJ14" t="n" s="10">
         <v>107.5</v>
       </c>
-      <c r="UK14" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="UL14" t="s" s="10">
-        <v>67</v>
+      <c r="UK14" t="n" s="10">
+        <v>107.7</v>
+      </c>
+      <c r="UL14" t="n" s="10">
+        <v>108.0</v>
       </c>
       <c r="UM14" t="s" s="10">
         <v>67</v>
@@ -27749,11 +27749,11 @@
       <c r="UJ15" t="n" s="10">
         <v>109.3</v>
       </c>
-      <c r="UK15" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="UL15" t="s" s="10">
-        <v>67</v>
+      <c r="UK15" t="n" s="10">
+        <v>110.4</v>
+      </c>
+      <c r="UL15" t="n" s="10">
+        <v>110.8</v>
       </c>
       <c r="UM15" t="s" s="10">
         <v>67</v>
@@ -29449,11 +29449,11 @@
       <c r="UJ16" t="n" s="10">
         <v>146.0</v>
       </c>
-      <c r="UK16" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="UL16" t="s" s="10">
-        <v>67</v>
+      <c r="UK16" t="n" s="10">
+        <v>151.7</v>
+      </c>
+      <c r="UL16" t="n" s="10">
+        <v>158.8</v>
       </c>
       <c r="UM16" t="s" s="10">
         <v>67</v>
@@ -31149,11 +31149,11 @@
       <c r="UJ17" t="n" s="10">
         <v>130.0</v>
       </c>
-      <c r="UK17" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="UL17" t="s" s="10">
-        <v>67</v>
+      <c r="UK17" t="n" s="10">
+        <v>132.4</v>
+      </c>
+      <c r="UL17" t="n" s="10">
+        <v>138.5</v>
       </c>
       <c r="UM17" t="s" s="10">
         <v>67</v>
@@ -32849,11 +32849,11 @@
       <c r="UJ18" t="n" s="10">
         <v>109.1</v>
       </c>
-      <c r="UK18" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="UL18" t="s" s="10">
-        <v>67</v>
+      <c r="UK18" t="n" s="10">
+        <v>111.6</v>
+      </c>
+      <c r="UL18" t="n" s="10">
+        <v>116.1</v>
       </c>
       <c r="UM18" t="s" s="10">
         <v>67</v>
@@ -34549,11 +34549,11 @@
       <c r="UJ19" t="n" s="10">
         <v>141.9</v>
       </c>
-      <c r="UK19" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="UL19" t="s" s="10">
-        <v>67</v>
+      <c r="UK19" t="n" s="10">
+        <v>178.2</v>
+      </c>
+      <c r="UL19" t="n" s="10">
+        <v>170.4</v>
       </c>
       <c r="UM19" t="s" s="10">
         <v>67</v>
@@ -36249,11 +36249,11 @@
       <c r="UJ20" t="n" s="10">
         <v>131.0</v>
       </c>
-      <c r="UK20" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="UL20" t="s" s="10">
-        <v>67</v>
+      <c r="UK20" t="n" s="10">
+        <v>134.2</v>
+      </c>
+      <c r="UL20" t="n" s="10">
+        <v>141.0</v>
       </c>
       <c r="UM20" t="s" s="10">
         <v>67</v>
@@ -37949,11 +37949,11 @@
       <c r="UJ21" t="n" s="10">
         <v>107.3</v>
       </c>
-      <c r="UK21" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="UL21" t="s" s="10">
-        <v>67</v>
+      <c r="UK21" t="n" s="10">
+        <v>107.5</v>
+      </c>
+      <c r="UL21" t="n" s="10">
+        <v>107.5</v>
       </c>
       <c r="UM21" t="s" s="10">
         <v>67</v>
@@ -39649,11 +39649,11 @@
       <c r="UJ22" t="n" s="10">
         <v>116.7</v>
       </c>
-      <c r="UK22" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="UL22" t="s" s="10">
-        <v>67</v>
+      <c r="UK22" t="n" s="10">
+        <v>117.8</v>
+      </c>
+      <c r="UL22" t="n" s="10">
+        <v>120.4</v>
       </c>
       <c r="UM22" t="s" s="10">
         <v>67</v>
@@ -41349,11 +41349,11 @@
       <c r="UJ23" t="n" s="10">
         <v>122.0</v>
       </c>
-      <c r="UK23" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="UL23" t="s" s="10">
-        <v>67</v>
+      <c r="UK23" t="n" s="10">
+        <v>123.9</v>
+      </c>
+      <c r="UL23" t="n" s="10">
+        <v>128.0</v>
       </c>
       <c r="UM23" t="s" s="10">
         <v>67</v>
@@ -43049,11 +43049,11 @@
       <c r="UJ24" t="n" s="10">
         <v>153.8</v>
       </c>
-      <c r="UK24" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="UL24" t="s" s="10">
-        <v>67</v>
+      <c r="UK24" t="n" s="10">
+        <v>163.0</v>
+      </c>
+      <c r="UL24" t="n" s="10">
+        <v>172.4</v>
       </c>
       <c r="UM24" t="s" s="10">
         <v>67</v>
@@ -44749,11 +44749,11 @@
       <c r="UJ25" t="n" s="10">
         <v>121.5</v>
       </c>
-      <c r="UK25" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="UL25" t="s" s="10">
-        <v>67</v>
+      <c r="UK25" t="n" s="10">
+        <v>123.6</v>
+      </c>
+      <c r="UL25" t="n" s="10">
+        <v>126.7</v>
       </c>
       <c r="UM25" t="s" s="10">
         <v>67</v>
@@ -46449,11 +46449,11 @@
       <c r="UJ26" t="n" s="10">
         <v>99.8</v>
       </c>
-      <c r="UK26" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="UL26" t="s" s="10">
-        <v>67</v>
+      <c r="UK26" t="n" s="10">
+        <v>100.2</v>
+      </c>
+      <c r="UL26" t="n" s="10">
+        <v>100.7</v>
       </c>
       <c r="UM26" t="s" s="10">
         <v>67</v>
@@ -48149,11 +48149,11 @@
       <c r="UJ27" t="n" s="10">
         <v>114.1</v>
       </c>
-      <c r="UK27" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="UL27" t="s" s="10">
-        <v>67</v>
+      <c r="UK27" t="n" s="10">
+        <v>115.2</v>
+      </c>
+      <c r="UL27" t="n" s="10">
+        <v>116.9</v>
       </c>
       <c r="UM27" t="s" s="10">
         <v>67</v>
@@ -49849,11 +49849,11 @@
       <c r="UJ28" t="n" s="10">
         <v>113.6</v>
       </c>
-      <c r="UK28" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="UL28" t="s" s="10">
-        <v>67</v>
+      <c r="UK28" t="n" s="10">
+        <v>114.0</v>
+      </c>
+      <c r="UL28" t="n" s="10">
+        <v>115.4</v>
       </c>
       <c r="UM28" t="s" s="10">
         <v>67</v>
@@ -51549,11 +51549,11 @@
       <c r="UJ29" t="n" s="10">
         <v>108.0</v>
       </c>
-      <c r="UK29" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="UL29" t="s" s="10">
-        <v>67</v>
+      <c r="UK29" t="n" s="10">
+        <v>108.1</v>
+      </c>
+      <c r="UL29" t="n" s="10">
+        <v>109.4</v>
       </c>
       <c r="UM29" t="s" s="10">
         <v>67</v>
@@ -53249,11 +53249,11 @@
       <c r="UJ30" t="n" s="10">
         <v>109.2</v>
       </c>
-      <c r="UK30" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="UL30" t="s" s="10">
-        <v>67</v>
+      <c r="UK30" t="n" s="10">
+        <v>109.5</v>
+      </c>
+      <c r="UL30" t="n" s="10">
+        <v>110.1</v>
       </c>
       <c r="UM30" t="s" s="10">
         <v>67</v>
@@ -54949,11 +54949,11 @@
       <c r="UJ31" t="n" s="10">
         <v>118.2</v>
       </c>
-      <c r="UK31" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="UL31" t="s" s="10">
-        <v>67</v>
+      <c r="UK31" t="n" s="10">
+        <v>119.3</v>
+      </c>
+      <c r="UL31" t="n" s="10">
+        <v>121.0</v>
       </c>
       <c r="UM31" t="s" s="10">
         <v>67</v>
@@ -56649,11 +56649,11 @@
       <c r="UJ32" t="n" s="10">
         <v>112.4</v>
       </c>
-      <c r="UK32" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="UL32" t="s" s="10">
-        <v>67</v>
+      <c r="UK32" t="n" s="10">
+        <v>113.1</v>
+      </c>
+      <c r="UL32" t="n" s="10">
+        <v>114.0</v>
       </c>
       <c r="UM32" t="s" s="10">
         <v>67</v>
@@ -58349,11 +58349,11 @@
       <c r="UJ33" t="n" s="10">
         <v>118.0</v>
       </c>
-      <c r="UK33" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="UL33" t="s" s="10">
-        <v>67</v>
+      <c r="UK33" t="n" s="10">
+        <v>118.2</v>
+      </c>
+      <c r="UL33" t="n" s="10">
+        <v>118.6</v>
       </c>
       <c r="UM33" t="s" s="10">
         <v>67</v>
@@ -60049,11 +60049,11 @@
       <c r="UJ34" t="n" s="10">
         <v>188.6</v>
       </c>
-      <c r="UK34" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="UL34" t="s" s="10">
-        <v>67</v>
+      <c r="UK34" t="n" s="10">
+        <v>205.7</v>
+      </c>
+      <c r="UL34" t="n" s="10">
+        <v>212.6</v>
       </c>
       <c r="UM34" t="s" s="10">
         <v>67</v>
@@ -61749,11 +61749,11 @@
       <c r="UJ35" t="n" s="10">
         <v>112.5</v>
       </c>
-      <c r="UK35" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="UL35" t="s" s="10">
-        <v>67</v>
+      <c r="UK35" t="n" s="10">
+        <v>112.6</v>
+      </c>
+      <c r="UL35" t="n" s="10">
+        <v>112.7</v>
       </c>
       <c r="UM35" t="s" s="10">
         <v>67</v>
@@ -61847,7 +61847,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:55:21&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:34:16&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/Producer price index for industrial products - GP2 codes.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Producer price index for industrial products - GP2 codes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7148" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7119" uniqueCount="126">
   <si>
     <t>Producer price index for industrial products: Germany,
 months, product classification (GP2009 2-/3-/4-/5-/6-/
@@ -391,7 +391,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:34:06</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 06:45:25</t>
   </si>
 </sst>
 </file>
@@ -14155,8 +14155,8 @@
       <c r="UL7" t="n" s="10">
         <v>109.2</v>
       </c>
-      <c r="UM7" t="s" s="10">
-        <v>67</v>
+      <c r="UM7" t="n" s="10">
+        <v>108.0</v>
       </c>
       <c r="UN7" t="s" s="10">
         <v>67</v>
@@ -15855,8 +15855,8 @@
       <c r="UL8" t="n" s="10">
         <v>311.0</v>
       </c>
-      <c r="UM8" t="s" s="10">
-        <v>67</v>
+      <c r="UM8" t="n" s="10">
+        <v>269.8</v>
       </c>
       <c r="UN8" t="s" s="10">
         <v>67</v>
@@ -17555,8 +17555,8 @@
       <c r="UL9" t="n" s="10">
         <v>126.5</v>
       </c>
-      <c r="UM9" t="s" s="10">
-        <v>67</v>
+      <c r="UM9" t="n" s="10">
+        <v>129.5</v>
       </c>
       <c r="UN9" t="s" s="10">
         <v>67</v>
@@ -19255,8 +19255,8 @@
       <c r="UL10" t="n" s="10">
         <v>131.3</v>
       </c>
-      <c r="UM10" t="s" s="10">
-        <v>67</v>
+      <c r="UM10" t="n" s="10">
+        <v>133.4</v>
       </c>
       <c r="UN10" t="s" s="10">
         <v>67</v>
@@ -20955,8 +20955,8 @@
       <c r="UL11" t="n" s="10">
         <v>114.2</v>
       </c>
-      <c r="UM11" t="s" s="10">
-        <v>67</v>
+      <c r="UM11" t="n" s="10">
+        <v>115.0</v>
       </c>
       <c r="UN11" t="s" s="10">
         <v>67</v>
@@ -22655,8 +22655,8 @@
       <c r="UL12" t="n" s="10">
         <v>119.6</v>
       </c>
-      <c r="UM12" t="s" s="10">
-        <v>67</v>
+      <c r="UM12" t="n" s="10">
+        <v>119.6</v>
       </c>
       <c r="UN12" t="s" s="10">
         <v>67</v>
@@ -24355,8 +24355,8 @@
       <c r="UL13" t="n" s="10">
         <v>114.8</v>
       </c>
-      <c r="UM13" t="s" s="10">
-        <v>67</v>
+      <c r="UM13" t="n" s="10">
+        <v>116.1</v>
       </c>
       <c r="UN13" t="s" s="10">
         <v>67</v>
@@ -26055,8 +26055,8 @@
       <c r="UL14" t="n" s="10">
         <v>108.0</v>
       </c>
-      <c r="UM14" t="s" s="10">
-        <v>67</v>
+      <c r="UM14" t="n" s="10">
+        <v>108.1</v>
       </c>
       <c r="UN14" t="s" s="10">
         <v>67</v>
@@ -27755,8 +27755,8 @@
       <c r="UL15" t="n" s="10">
         <v>110.8</v>
       </c>
-      <c r="UM15" t="s" s="10">
-        <v>67</v>
+      <c r="UM15" t="n" s="10">
+        <v>110.9</v>
       </c>
       <c r="UN15" t="s" s="10">
         <v>67</v>
@@ -29455,8 +29455,8 @@
       <c r="UL16" t="n" s="10">
         <v>158.8</v>
       </c>
-      <c r="UM16" t="s" s="10">
-        <v>67</v>
+      <c r="UM16" t="n" s="10">
+        <v>165.5</v>
       </c>
       <c r="UN16" t="s" s="10">
         <v>67</v>
@@ -31155,8 +31155,8 @@
       <c r="UL17" t="n" s="10">
         <v>138.5</v>
       </c>
-      <c r="UM17" t="s" s="10">
-        <v>67</v>
+      <c r="UM17" t="n" s="10">
+        <v>142.5</v>
       </c>
       <c r="UN17" t="s" s="10">
         <v>67</v>
@@ -32855,8 +32855,8 @@
       <c r="UL18" t="n" s="10">
         <v>116.1</v>
       </c>
-      <c r="UM18" t="s" s="10">
-        <v>67</v>
+      <c r="UM18" t="n" s="10">
+        <v>118.5</v>
       </c>
       <c r="UN18" t="s" s="10">
         <v>67</v>
@@ -34555,8 +34555,8 @@
       <c r="UL19" t="n" s="10">
         <v>170.4</v>
       </c>
-      <c r="UM19" t="s" s="10">
-        <v>67</v>
+      <c r="UM19" t="n" s="10">
+        <v>174.8</v>
       </c>
       <c r="UN19" t="s" s="10">
         <v>67</v>
@@ -36255,8 +36255,8 @@
       <c r="UL20" t="n" s="10">
         <v>141.0</v>
       </c>
-      <c r="UM20" t="s" s="10">
-        <v>67</v>
+      <c r="UM20" t="n" s="10">
+        <v>144.8</v>
       </c>
       <c r="UN20" t="s" s="10">
         <v>67</v>
@@ -37955,8 +37955,8 @@
       <c r="UL21" t="n" s="10">
         <v>107.5</v>
       </c>
-      <c r="UM21" t="s" s="10">
-        <v>67</v>
+      <c r="UM21" t="n" s="10">
+        <v>107.7</v>
       </c>
       <c r="UN21" t="s" s="10">
         <v>67</v>
@@ -39655,8 +39655,8 @@
       <c r="UL22" t="n" s="10">
         <v>120.4</v>
       </c>
-      <c r="UM22" t="s" s="10">
-        <v>67</v>
+      <c r="UM22" t="n" s="10">
+        <v>122.7</v>
       </c>
       <c r="UN22" t="s" s="10">
         <v>67</v>
@@ -41355,8 +41355,8 @@
       <c r="UL23" t="n" s="10">
         <v>128.0</v>
       </c>
-      <c r="UM23" t="s" s="10">
-        <v>67</v>
+      <c r="UM23" t="n" s="10">
+        <v>131.2</v>
       </c>
       <c r="UN23" t="s" s="10">
         <v>67</v>
@@ -43055,8 +43055,8 @@
       <c r="UL24" t="n" s="10">
         <v>172.4</v>
       </c>
-      <c r="UM24" t="s" s="10">
-        <v>67</v>
+      <c r="UM24" t="n" s="10">
+        <v>173.9</v>
       </c>
       <c r="UN24" t="s" s="10">
         <v>67</v>
@@ -44755,8 +44755,8 @@
       <c r="UL25" t="n" s="10">
         <v>126.7</v>
       </c>
-      <c r="UM25" t="s" s="10">
-        <v>67</v>
+      <c r="UM25" t="n" s="10">
+        <v>128.6</v>
       </c>
       <c r="UN25" t="s" s="10">
         <v>67</v>
@@ -46455,8 +46455,8 @@
       <c r="UL26" t="n" s="10">
         <v>100.7</v>
       </c>
-      <c r="UM26" t="s" s="10">
-        <v>67</v>
+      <c r="UM26" t="n" s="10">
+        <v>101.3</v>
       </c>
       <c r="UN26" t="s" s="10">
         <v>67</v>
@@ -48155,8 +48155,8 @@
       <c r="UL27" t="n" s="10">
         <v>116.9</v>
       </c>
-      <c r="UM27" t="s" s="10">
-        <v>67</v>
+      <c r="UM27" t="n" s="10">
+        <v>117.8</v>
       </c>
       <c r="UN27" t="s" s="10">
         <v>67</v>
@@ -49855,8 +49855,8 @@
       <c r="UL28" t="n" s="10">
         <v>115.4</v>
       </c>
-      <c r="UM28" t="s" s="10">
-        <v>67</v>
+      <c r="UM28" t="n" s="10">
+        <v>116.4</v>
       </c>
       <c r="UN28" t="s" s="10">
         <v>67</v>
@@ -51555,8 +51555,8 @@
       <c r="UL29" t="n" s="10">
         <v>109.4</v>
       </c>
-      <c r="UM29" t="s" s="10">
-        <v>67</v>
+      <c r="UM29" t="n" s="10">
+        <v>109.5</v>
       </c>
       <c r="UN29" t="s" s="10">
         <v>67</v>
@@ -53255,8 +53255,8 @@
       <c r="UL30" t="n" s="10">
         <v>110.1</v>
       </c>
-      <c r="UM30" t="s" s="10">
-        <v>67</v>
+      <c r="UM30" t="n" s="10">
+        <v>110.4</v>
       </c>
       <c r="UN30" t="s" s="10">
         <v>67</v>
@@ -54955,8 +54955,8 @@
       <c r="UL31" t="n" s="10">
         <v>121.0</v>
       </c>
-      <c r="UM31" t="s" s="10">
-        <v>67</v>
+      <c r="UM31" t="n" s="10">
+        <v>122.7</v>
       </c>
       <c r="UN31" t="s" s="10">
         <v>67</v>
@@ -56655,8 +56655,8 @@
       <c r="UL32" t="n" s="10">
         <v>114.0</v>
       </c>
-      <c r="UM32" t="s" s="10">
-        <v>67</v>
+      <c r="UM32" t="n" s="10">
+        <v>114.6</v>
       </c>
       <c r="UN32" t="s" s="10">
         <v>67</v>
@@ -58355,8 +58355,8 @@
       <c r="UL33" t="n" s="10">
         <v>118.6</v>
       </c>
-      <c r="UM33" t="s" s="10">
-        <v>67</v>
+      <c r="UM33" t="n" s="10">
+        <v>119.2</v>
       </c>
       <c r="UN33" t="s" s="10">
         <v>67</v>
@@ -60055,8 +60055,8 @@
       <c r="UL34" t="n" s="10">
         <v>212.6</v>
       </c>
-      <c r="UM34" t="s" s="10">
-        <v>67</v>
+      <c r="UM34" t="n" s="10">
+        <v>218.8</v>
       </c>
       <c r="UN34" t="s" s="10">
         <v>67</v>
@@ -61755,8 +61755,8 @@
       <c r="UL35" t="n" s="10">
         <v>112.7</v>
       </c>
-      <c r="UM35" t="s" s="10">
-        <v>67</v>
+      <c r="UM35" t="n" s="10">
+        <v>113.0</v>
       </c>
       <c r="UN35" t="s" s="10">
         <v>67</v>
@@ -61847,7 +61847,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:34:16&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 06:45:33&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>